--- a/Notecarrier-Pi/v4/Notecarrier-Pi BOM v4.xlsx
+++ b/Notecarrier-Pi/v4/Notecarrier-Pi BOM v4.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RD\ENG\BLUES\2017-3047\SCH\V4\NOTECARRIER-M2-PI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwied\Documents\repositories\note-hardware\Notecarrier-Pi\v4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2BD7FF-19D6-48F0-B489-85264C72CF3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADE4229-AE86-487A-A080-BE26CCAE67B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_FilterDatabase" localSheetId="0" hidden="1">BOM!$A$6:$K$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BOM!$A$6:$I$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="124">
   <si>
     <t>Item</t>
   </si>
@@ -54,9 +53,6 @@
     <t>Temperature</t>
   </si>
   <si>
-    <t>Distributor</t>
-  </si>
-  <si>
     <t>Package</t>
   </si>
   <si>
@@ -66,9 +62,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Database</t>
-  </si>
-  <si>
     <t>PROJECT</t>
   </si>
   <si>
@@ -81,9 +74,6 @@
     <t>MPN</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>CS1</t>
   </si>
   <si>
@@ -96,27 +86,15 @@
     <t>TG150</t>
   </si>
   <si>
-    <t>WE</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>C1,C2</t>
   </si>
   <si>
     <t>22u/25V-X5R</t>
   </si>
   <si>
-    <t>CHIP CAP.CER. 22uF 25V 10% X5R 1206</t>
-  </si>
-  <si>
     <t>-55°..+85°</t>
   </si>
   <si>
-    <t>FAE</t>
-  </si>
-  <si>
     <t>SMD</t>
   </si>
   <si>
@@ -129,9 +107,6 @@
     <t>100n/16V</t>
   </si>
   <si>
-    <t>CHIP CAP.CER. 100nF 16V 10% X7R 0402</t>
-  </si>
-  <si>
     <t>CS-C-0402</t>
   </si>
   <si>
@@ -144,18 +119,12 @@
     <t>33p/50V-C0G</t>
   </si>
   <si>
-    <t>CHIP CAP.CER. 33pF 50V 5% C0G 0402</t>
-  </si>
-  <si>
     <t>C8</t>
   </si>
   <si>
     <t>10n/1kV</t>
   </si>
   <si>
-    <t>CHIP CAP.CER. 10nF 1000V 10% X7R 1206</t>
-  </si>
-  <si>
     <t>DSW1,DSW2,DSW3</t>
   </si>
   <si>
@@ -177,9 +146,6 @@
     <t>STPS3H100U</t>
   </si>
   <si>
-    <t>DIODO SCHOTTKY 3A 100V STPS3H100U SMB SMT</t>
-  </si>
-  <si>
     <t>SMB</t>
   </si>
   <si>
@@ -189,9 +155,6 @@
     <t>SF-0603F150-2</t>
   </si>
   <si>
-    <t>FUSIBILE RAPIDO 1.5A 32V 0603 SF-0603F150-2 BOURNS SMT</t>
-  </si>
-  <si>
     <t>-40°..+105°</t>
   </si>
   <si>
@@ -207,9 +170,6 @@
     <t>0603SFV350F/32-2</t>
   </si>
   <si>
-    <t>FUSIBILE RAPIDO 3.5A 32V 0603 0603SFV350F/32-2 LITTELFUSE SMT</t>
-  </si>
-  <si>
     <t>-55°..+125°</t>
   </si>
   <si>
@@ -219,9 +179,6 @@
     <t>2223</t>
   </si>
   <si>
-    <t>STRIP 20P F/D DOPPIA FILA P=2.54 2223 ADAFRUIT</t>
-  </si>
-  <si>
     <t>-40..+105</t>
   </si>
   <si>
@@ -240,9 +197,6 @@
     <t>SF72S006VBAR2500</t>
   </si>
   <si>
-    <t>CONN. NANOSIM 8P F/90° PUSH-PUSH SF72S006VBAR2500 JAE ELECTRONICS SMT</t>
-  </si>
-  <si>
     <t>-25°..+85°</t>
   </si>
   <si>
@@ -255,9 +209,6 @@
     <t>MDT420E01001</t>
   </si>
   <si>
-    <t>CONN. M.2 75P M/90° P=0.5 MDT420E01001 AMPHENOL SMT</t>
-  </si>
-  <si>
     <t>-40°..+80°</t>
   </si>
   <si>
@@ -270,9 +221,6 @@
     <t>10118192-0002LF</t>
   </si>
   <si>
-    <t>CONN. USB F/90° TIPO MICRO-B C.S. 10118192-0002LF FCI SMT</t>
-  </si>
-  <si>
     <t>-30°..+80°</t>
   </si>
   <si>
@@ -285,9 +233,6 @@
     <t>GROVE</t>
   </si>
   <si>
-    <t>CONN. GROVE 4P M/90° P=2 1125R-SMT-4P SEEDSTUDIO SMT</t>
-  </si>
-  <si>
     <t>J-4-0200-MOS-GROVE</t>
   </si>
   <si>
@@ -297,9 +242,6 @@
     <t>9774025151R</t>
   </si>
   <si>
-    <t>DISTANZ. CIL. METALLO 5.1X2.5 9774025151R W.E SMT</t>
-  </si>
-  <si>
     <t>DIST-WASMSIM0250</t>
   </si>
   <si>
@@ -309,9 +251,6 @@
     <t>22R</t>
   </si>
   <si>
-    <t>CHIP RES. 22R 0603 1/16W 1%</t>
-  </si>
-  <si>
     <t>RS-0603</t>
   </si>
   <si>
@@ -321,9 +260,6 @@
     <t>15k</t>
   </si>
   <si>
-    <t>CHIP RES. 15K 0402 1/16W 1%</t>
-  </si>
-  <si>
     <t>-55°..+155°</t>
   </si>
   <si>
@@ -336,9 +272,6 @@
     <t>1M</t>
   </si>
   <si>
-    <t>CHIP RES. 1M 1206 1/4W 1%</t>
-  </si>
-  <si>
     <t>RS-1206</t>
   </si>
   <si>
@@ -348,18 +281,12 @@
     <t>100R</t>
   </si>
   <si>
-    <t>CHIP RES. 100R 0402 1/16W 1%</t>
-  </si>
-  <si>
     <t>TVS1,TVS3</t>
   </si>
   <si>
     <t>SM6T6V8A</t>
   </si>
   <si>
-    <t>DIODO TVS TRANSIL UNIDIR. 600W 6.8V SM6T6V8A SMB SMT</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -369,9 +296,6 @@
     <t>SM2T3V3A</t>
   </si>
   <si>
-    <t>DIODO TVS TRANSIL UNDIR. 200W 3.6V SM2T3V3A DO216AA SMT</t>
-  </si>
-  <si>
     <t>D-DO216AA</t>
   </si>
   <si>
@@ -381,9 +305,6 @@
     <t>ESDLC5V0M5-TP</t>
   </si>
   <si>
-    <t>DIODO TVS TRANSIL UNIDIR. 20W 5V ESDLC5V0M5-TP SOT563 SMT</t>
-  </si>
-  <si>
     <t>-65°..+150°</t>
   </si>
   <si>
@@ -405,12 +326,6 @@
     <t>ASS1</t>
   </si>
   <si>
-    <t>KNOB M2.5x4 - INOX</t>
-  </si>
-  <si>
-    <t>VITE TCEI 2.5X4 ESAGONO INCASSATO A2 INOX</t>
-  </si>
-  <si>
     <t>NOT MOUNTED</t>
   </si>
   <si>
@@ -424,13 +339,79 @@
   </si>
   <si>
     <t>Blues Inc</t>
+  </si>
+  <si>
+    <t>CHIP CERAMIC CAPACITOR 22uF 25V 10% X5R 1206</t>
+  </si>
+  <si>
+    <t>CHIP CERAMIC CAPACITOR 100nF 16V 10% X7R 0402</t>
+  </si>
+  <si>
+    <t>CHIP CERAMIC CAPACITOR 33pF 50V 5% C0G 0402</t>
+  </si>
+  <si>
+    <t>CHIP CERAMIC CAPACITOR 10nF 1000V 10% X7R 1206</t>
+  </si>
+  <si>
+    <t>DIODE SCHOTTKY 3A 100V STPS3H100U SMB SMT</t>
+  </si>
+  <si>
+    <t>DIODE TVS TRANSIL UNIDIR. 600W 6.8V SM6T6V8A SMB SMT</t>
+  </si>
+  <si>
+    <t>DIODE TVS TRANSIL UNDIR. 200W 3.6V SM2T3V3A DO216AA SMT</t>
+  </si>
+  <si>
+    <t>DIODE TVS TRANSIL UNIDIR. 20W 5V ESDLC5V0M5-TP SOT563 SMT</t>
+  </si>
+  <si>
+    <t>FAST BLOW FUSE 1.5A 32V 0603 SF-0603F150-2 BOURNS SMT</t>
+  </si>
+  <si>
+    <t>FAST BLOW FUSE 3.5A 32V 0603 0603SFV350F/32-2 LITTELFUSE SMT</t>
+  </si>
+  <si>
+    <t>CONNECTOR NANOSIM 8P F/90° PUSH-PUSH SF72S006VBAR2500 JAE ELECTRONICS SMT</t>
+  </si>
+  <si>
+    <t>CONNECTOR M.2 75P M/90° P=0.5 MDT420E01001 AMPHENOL SMT</t>
+  </si>
+  <si>
+    <t>CONNECTOR USB F/90° TIPO MICRO-B C.S. 10118192-0002LF FCI SMT</t>
+  </si>
+  <si>
+    <t>CONNECTOR GROVE 4P M/90° P=2 1125R-SMT-4P SEEDSTUDIO SMT</t>
+  </si>
+  <si>
+    <t>STACKING HEADER 2x20P P=2.54 2223 ADAFRUIT</t>
+  </si>
+  <si>
+    <t>ROUND STANDOFF STEEL 5.1X2.5 9774025151R W.E SMT</t>
+  </si>
+  <si>
+    <t>CHIP RESISTOR 22R 0603 1/16W 1%</t>
+  </si>
+  <si>
+    <t>CHIP RESISTOR 15K 0402 1/16W 1%</t>
+  </si>
+  <si>
+    <t>CHIP RESISTOR 1M 1206 1/4W 1%</t>
+  </si>
+  <si>
+    <t>CHIP RESISTOR 100R 0402 1/16W 1%</t>
+  </si>
+  <si>
+    <t>SCREW M2.5x4</t>
+  </si>
+  <si>
+    <t>DIN 912 M2.5x4 HEX SOCKET HEAD CAP SCREW, FULLY-THREADED SHAFT, A2 STAINLESS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -574,13 +555,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1028,7 +1002,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1045,18 +1019,12 @@
     <xf numFmtId="49" fontId="20" fillId="33" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="33" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1078,22 +1046,13 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="35" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="35" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="22" fillId="35" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="21" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1102,15 +1061,21 @@
     <xf numFmtId="49" fontId="21" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1120,70 +1085,53 @@
     <xf numFmtId="14" fontId="18" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Calcolo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cella collegata" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Cella da controllare" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Colore 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Colore 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Colore 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Colore 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Colore 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Colore 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Neutrale" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normale 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Testo avviso" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Testo descrittivo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titolo" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titolo 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titolo 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titolo 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titolo 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Totale" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Valore non valido" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Valore valido" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1476,111 +1424,100 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="15" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="41.5" style="16" customWidth="1"/>
-    <col min="4" max="5" width="31.1640625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="53" style="16" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1640625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35" style="16" customWidth="1"/>
-    <col min="11" max="11" width="15" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.33203125" style="2"/>
+    <col min="1" max="1" width="26.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="79.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="25"/>
+      <c r="E1" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="22"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="9"/>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="9"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -1594,7 +1531,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>4</v>
@@ -1603,817 +1540,665 @@
         <v>5</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
+        <v>1</v>
+      </c>
+      <c r="B7" s="15">
+        <v>1</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
+        <v>2</v>
+      </c>
+      <c r="B8" s="15">
+        <v>2</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
+        <v>3</v>
+      </c>
+      <c r="B9" s="15">
+        <v>2</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
+        <v>4</v>
+      </c>
+      <c r="B10" s="15">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>5</v>
+      </c>
+      <c r="B11" s="15">
+        <v>1</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
+        <v>6</v>
+      </c>
+      <c r="B12" s="15">
+        <v>3</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
+        <v>7</v>
+      </c>
+      <c r="B13" s="15">
+        <v>2</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="15">
+        <v>8</v>
+      </c>
+      <c r="B14" s="15">
+        <v>1</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="15">
         <v>9</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="6" t="s">
+      <c r="B15" s="15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="15">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="19">
+      <c r="B16" s="15">
         <v>1</v>
       </c>
-      <c r="B7" s="19">
+      <c r="C16" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="15">
+        <v>11</v>
+      </c>
+      <c r="B17" s="15">
         <v>1</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C17" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="15">
+        <v>12</v>
+      </c>
+      <c r="B18" s="15">
+        <v>1</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="15">
+        <v>13</v>
+      </c>
+      <c r="B19" s="15">
+        <v>1</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="15">
+        <v>14</v>
+      </c>
+      <c r="B20" s="15">
+        <v>1</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="15">
+        <v>15</v>
+      </c>
+      <c r="B21" s="15">
+        <v>1</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="15">
         <v>16</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="B22" s="15">
+        <v>3</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="15">
         <v>17</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20" t="s">
+      <c r="B23" s="15">
+        <v>1</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="15">
         <v>18</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="B24" s="15">
+        <v>1</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="15">
         <v>19</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="B25" s="15">
+        <v>8</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="21"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="19">
+      <c r="I25" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="15">
+        <v>20</v>
+      </c>
+      <c r="B26" s="15">
         <v>2</v>
       </c>
-      <c r="B8" s="19">
-        <v>2</v>
-      </c>
-      <c r="C8" s="20" t="s">
+      <c r="C26" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="15">
+        <v>21</v>
+      </c>
+      <c r="B27" s="15">
+        <v>1</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="15">
         <v>22</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="21">
-        <v>30650</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="19">
-        <v>3</v>
-      </c>
-      <c r="B9" s="19">
-        <v>2</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="21">
-        <v>22452</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="19">
-        <v>4</v>
-      </c>
-      <c r="B10" s="19">
-        <v>3</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="21">
-        <v>38594</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="19">
-        <v>5</v>
-      </c>
-      <c r="B11" s="19">
+      <c r="B28" s="15">
         <v>1</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="21">
-        <v>28470</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="19">
-        <v>6</v>
-      </c>
-      <c r="B12" s="19">
-        <v>3</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="K12" s="21">
-        <v>33083</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="19">
-        <v>7</v>
-      </c>
-      <c r="B13" s="19">
-        <v>2</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="K13" s="21">
-        <v>40665</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="19">
-        <v>8</v>
-      </c>
-      <c r="B14" s="19">
-        <v>1</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14" s="21">
-        <v>32505</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="19">
-        <v>9</v>
-      </c>
-      <c r="B15" s="19">
-        <v>1</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="K15" s="21">
-        <v>40054</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" s="19">
-        <v>10</v>
-      </c>
-      <c r="B16" s="19">
-        <v>1</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="K16" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="19">
-        <v>11</v>
-      </c>
-      <c r="B17" s="19">
-        <v>1</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="K17" s="21">
-        <v>41049</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="19">
-        <v>12</v>
-      </c>
-      <c r="B18" s="19">
-        <v>1</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="K18" s="21">
-        <v>44633</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="19">
-        <v>13</v>
-      </c>
-      <c r="B19" s="19">
-        <v>1</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="K19" s="21">
-        <v>47781</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="19">
-        <v>14</v>
-      </c>
-      <c r="B20" s="19">
-        <v>1</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="K20" s="21">
-        <v>45891</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="19">
-        <v>15</v>
-      </c>
-      <c r="B21" s="19">
-        <v>1</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="20" t="s">
+      <c r="C28" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="K21" s="21">
-        <v>44635</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="19">
-        <v>16</v>
-      </c>
-      <c r="B22" s="19">
-        <v>3</v>
-      </c>
-      <c r="C22" s="20" t="s">
+      <c r="D28" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="E28" s="16"/>
+      <c r="F28" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20" t="s">
+      <c r="H28" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="K22" s="21">
-        <v>20385</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="19">
-        <v>17</v>
-      </c>
-      <c r="B23" s="19">
-        <v>1</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="H23" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J23" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="K23" s="21">
-        <v>40387</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="19">
-        <v>18</v>
-      </c>
-      <c r="B24" s="19">
-        <v>1</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I24" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J24" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="K24" s="21">
-        <v>28883</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="19">
-        <v>19</v>
-      </c>
-      <c r="B25" s="19">
-        <v>8</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I25" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J25" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="K25" s="21">
-        <v>26315</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="19">
-        <v>20</v>
-      </c>
-      <c r="B26" s="19">
-        <v>2</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J26" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="K26" s="21">
-        <v>14165</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="19">
-        <v>21</v>
-      </c>
-      <c r="B27" s="19">
-        <v>1</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I27" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J27" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="K27" s="21">
-        <v>38895</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="19">
-        <v>22</v>
-      </c>
-      <c r="B28" s="19">
-        <v>1</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H28" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I28" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J28" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="K28" s="21">
-        <v>44643</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="15">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="13">
         <f>SUM(B7:B28)</f>
         <v>39</v>
       </c>
-      <c r="H29" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="19">
+    </row>
+    <row r="32" spans="1:9" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="15">
         <v>1</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="15">
         <v>1</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="E33" s="16"/>
+      <c r="F33" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I33" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="J33" s="20"/>
-      <c r="K33" s="21">
-        <v>48266</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="15">
+      <c r="G33" s="16"/>
+      <c r="H33" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I33" s="16"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="13">
         <f>SUM(B32:B33)</f>
         <v>1</v>
       </c>
-      <c r="H34" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="23">
+    </row>
+    <row r="37" spans="1:9" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="18">
         <v>1</v>
       </c>
-      <c r="B38" s="23">
+      <c r="B38" s="18">
         <v>4</v>
       </c>
-      <c r="C38" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="I38" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="J38" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="K38" s="25"/>
+      <c r="C38" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="19" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2427,17 +2212,27 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H7:H4997">
-    <cfRule type="expression" dxfId="0" priority="4">
-      <formula>AND($H7&lt;&gt;"FAE",$C7&lt;&gt;"",$D7&lt;&gt;"NU",$D7&lt;&gt;"TPS")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="34" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E0348801B21F24428C34FF10B345B861" ma:contentTypeVersion="10" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="43637fe6db863278ba92fe305be5dff2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aee85ee7-dfdd-4e89-b8b9-0bcca5b04b05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8df828f5acbae3bbaded443e2055daa6" ns2:_="">
     <xsd:import namespace="aee85ee7-dfdd-4e89-b8b9-0bcca5b04b05"/>
@@ -2621,22 +2416,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EA33969-3005-4488-8196-B05EF3FE290A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2016FC8E-5ED9-4635-978E-8EE879A95503}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75F48889-E5AC-4E55-BADC-5ABD71A24025}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2652,21 +2449,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EA33969-3005-4488-8196-B05EF3FE290A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2016FC8E-5ED9-4635-978E-8EE879A95503}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Notecarrier-Pi/v4/Notecarrier-Pi BOM v4.xlsx
+++ b/Notecarrier-Pi/v4/Notecarrier-Pi BOM v4.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwied\Documents\repositories\note-hardware\Notecarrier-Pi\v4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADE4229-AE86-487A-A080-BE26CCAE67B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B81CF8-97A5-4C0B-9FC4-455F507D4EC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13395" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BOM!$A$6:$I$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BOM!$A$4:$J$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,68 +33,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="119">
   <si>
     <t>Item</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>Reference</t>
   </si>
   <si>
-    <t>Part</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Temperature</t>
-  </si>
-  <si>
     <t>Package</t>
   </si>
   <si>
-    <t>DATA</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
-    <t>PROJECT</t>
-  </si>
-  <si>
-    <t>REVISION</t>
-  </si>
-  <si>
-    <t>SCHEMATIC</t>
-  </si>
-  <si>
-    <t>MPN</t>
-  </si>
-  <si>
     <t>CS1</t>
   </si>
   <si>
-    <t>CS V4 4L 18um</t>
-  </si>
-  <si>
-    <t>C.S. NOTECARRIER-M2-PI V4 (65X56.5)mm 4L/SO/SR ENIG TG150 sp=1.6mm Cu=18um</t>
-  </si>
-  <si>
-    <t>TG150</t>
-  </si>
-  <si>
     <t>C1,C2</t>
   </si>
   <si>
-    <t>22u/25V-X5R</t>
-  </si>
-  <si>
-    <t>-55°..+85°</t>
-  </si>
-  <si>
     <t>SMD</t>
   </si>
   <si>
@@ -104,39 +65,21 @@
     <t>C3,C7</t>
   </si>
   <si>
-    <t>100n/16V</t>
-  </si>
-  <si>
     <t>CS-C-0402</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>C4,C5,C6</t>
   </si>
   <si>
-    <t>33p/50V-C0G</t>
-  </si>
-  <si>
     <t>C8</t>
   </si>
   <si>
-    <t>10n/1kV</t>
-  </si>
-  <si>
     <t>DSW1,DSW2,DSW3</t>
   </si>
   <si>
-    <t>DIP-SW-CHS-01TB</t>
-  </si>
-  <si>
     <t>DIP SWITCH 1P/D NERO CHS-01TB COPAL SMT</t>
   </si>
   <si>
-    <t>-40°..+85°</t>
-  </si>
-  <si>
     <t>DSS-CHS-01TB</t>
   </si>
   <si>
@@ -155,33 +98,21 @@
     <t>SF-0603F150-2</t>
   </si>
   <si>
-    <t>-40°..+105°</t>
-  </si>
-  <si>
     <t>FS-0603</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>3.5A/32V</t>
-  </si>
-  <si>
     <t>0603SFV350F/32-2</t>
   </si>
   <si>
-    <t>-55°..+125°</t>
-  </si>
-  <si>
     <t>J1</t>
   </si>
   <si>
     <t>2223</t>
   </si>
   <si>
-    <t>-40..+105</t>
-  </si>
-  <si>
     <t>THT</t>
   </si>
   <si>
@@ -191,15 +122,9 @@
     <t>J2</t>
   </si>
   <si>
-    <t>NanoSIM - SF72S006VBAR2500</t>
-  </si>
-  <si>
     <t>SF72S006VBAR2500</t>
   </si>
   <si>
-    <t>-25°..+85°</t>
-  </si>
-  <si>
     <t>J-NANOSIM-SF72S006VBA</t>
   </si>
   <si>
@@ -209,9 +134,6 @@
     <t>MDT420E01001</t>
   </si>
   <si>
-    <t>-40°..+80°</t>
-  </si>
-  <si>
     <t>J-75-0050-MOS-M2-E</t>
   </si>
   <si>
@@ -221,18 +143,12 @@
     <t>10118192-0002LF</t>
   </si>
   <si>
-    <t>-30°..+80°</t>
-  </si>
-  <si>
     <t>J-5-0065-FOS-USB10118192-NOF</t>
   </si>
   <si>
     <t>J5</t>
   </si>
   <si>
-    <t>GROVE</t>
-  </si>
-  <si>
     <t>J-4-0200-MOS-GROVE</t>
   </si>
   <si>
@@ -248,48 +164,30 @@
     <t>R1,R2,R3</t>
   </si>
   <si>
-    <t>22R</t>
-  </si>
-  <si>
     <t>RS-0603</t>
   </si>
   <si>
     <t>R4</t>
   </si>
   <si>
-    <t>15k</t>
-  </si>
-  <si>
-    <t>-55°..+155°</t>
-  </si>
-  <si>
     <t>RS-0402</t>
   </si>
   <si>
     <t>R5</t>
   </si>
   <si>
-    <t>1M</t>
-  </si>
-  <si>
     <t>RS-1206</t>
   </si>
   <si>
     <t>R6,R7,R8,R9,R10,R11,R12,R13</t>
   </si>
   <si>
-    <t>100R</t>
-  </si>
-  <si>
     <t>TVS1,TVS3</t>
   </si>
   <si>
     <t>SM6T6V8A</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>TVS2</t>
   </si>
   <si>
@@ -305,21 +203,9 @@
     <t>ESDLC5V0M5-TP</t>
   </si>
   <si>
-    <t>-65°..+150°</t>
-  </si>
-  <si>
     <t>SOT666</t>
   </si>
   <si>
-    <t>2017-3047 (NOTECARRIER-M2-PI)</t>
-  </si>
-  <si>
-    <t>20173047_NOTECARRIER-M2-PI_V4</t>
-  </si>
-  <si>
-    <t>23/09/2020</t>
-  </si>
-  <si>
     <t>MECHANICAL</t>
   </si>
   <si>
@@ -332,15 +218,9 @@
     <t>FID1,FID2,FID3,FID4</t>
   </si>
   <si>
-    <t>TPS</t>
-  </si>
-  <si>
     <t>FIDUCIAL</t>
   </si>
   <si>
-    <t>Blues Inc</t>
-  </si>
-  <si>
     <t>CHIP CERAMIC CAPACITOR 22uF 25V 10% X5R 1206</t>
   </si>
   <si>
@@ -380,9 +260,6 @@
     <t>CONNECTOR USB F/90° TIPO MICRO-B C.S. 10118192-0002LF FCI SMT</t>
   </si>
   <si>
-    <t>CONNECTOR GROVE 4P M/90° P=2 1125R-SMT-4P SEEDSTUDIO SMT</t>
-  </si>
-  <si>
     <t>STACKING HEADER 2x20P P=2.54 2223 ADAFRUIT</t>
   </si>
   <si>
@@ -401,17 +278,141 @@
     <t>CHIP RESISTOR 100R 0402 1/16W 1%</t>
   </si>
   <si>
-    <t>SCREW M2.5x4</t>
-  </si>
-  <si>
-    <t>DIN 912 M2.5x4 HEX SOCKET HEAD CAP SCREW, FULLY-THREADED SHAFT, A2 STAINLESS</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="Barlow"/>
+      </rPr>
+      <t>blues</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="Barlow"/>
+      </rPr>
+      <t xml:space="preserve"> wireless</t>
+    </r>
+  </si>
+  <si>
+    <t>Notecarrier-Pi v4</t>
+  </si>
+  <si>
+    <t>Qty.</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Mfr. Part #</t>
+  </si>
+  <si>
+    <t>DIN 912 M2.5-0.45x4 HEX SOCKET HEAD CAP SCREW, FULLY-THREADED SHAFT, A2 STAINLESS</t>
+  </si>
+  <si>
+    <t>Grainger</t>
+  </si>
+  <si>
+    <t>6DA91</t>
+  </si>
+  <si>
+    <t>PCB NOTECARRIER-M2-PI V4 (65X56.5)mm 4L/SO/SR ENIG TG150 sp=1.6mm Cu=18um</t>
+  </si>
+  <si>
+    <t>Digi-Key</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>Spr. Part #</t>
+  </si>
+  <si>
+    <t>STMicroelectronics</t>
+  </si>
+  <si>
+    <t>Micro Commercial Co</t>
+  </si>
+  <si>
+    <t>ESDLC5V0M5-TPMSCT-ND</t>
+  </si>
+  <si>
+    <t>497-6501-1-ND</t>
+  </si>
+  <si>
+    <t>497-7878-1-ND</t>
+  </si>
+  <si>
+    <t>CONNECTOR GROVE 4P M/90° P=2 SEEDSTUDIO SMT</t>
+  </si>
+  <si>
+    <t>114020164</t>
+  </si>
+  <si>
+    <t>Seeed Technology Co., Ltd</t>
+  </si>
+  <si>
+    <t>1597-114020164-ND</t>
+  </si>
+  <si>
+    <t>Würth Elektronik</t>
+  </si>
+  <si>
+    <t>732-7078-1-ND</t>
+  </si>
+  <si>
+    <t>Amphenol ICC (FCI)</t>
+  </si>
+  <si>
+    <t>609-5379-1-ND</t>
+  </si>
+  <si>
+    <t>JAE Electronics</t>
+  </si>
+  <si>
+    <t>Adafruit Industries LLC</t>
+  </si>
+  <si>
+    <t>1528-1385-ND</t>
+  </si>
+  <si>
+    <t>670-2799-1-ND</t>
+  </si>
+  <si>
+    <t>MDT420E01001CT-ND</t>
+  </si>
+  <si>
+    <t>Bourns Inc.</t>
+  </si>
+  <si>
+    <t>Littelfuse Inc.</t>
+  </si>
+  <si>
+    <t>Nidec Copal Electronics</t>
+  </si>
+  <si>
+    <t>497-10392-1-ND</t>
+  </si>
+  <si>
+    <t>SF-0603F150-2CT-ND</t>
+  </si>
+  <si>
+    <t>0603SFV350F/32-2CT-ND</t>
+  </si>
+  <si>
+    <t>CHS-01TB</t>
+  </si>
+  <si>
+    <t>563-1004-1-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -537,45 +538,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="48"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Barlow"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Barlow"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Barlow"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -761,20 +760,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -947,15 +934,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1002,87 +980,78 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="20" fillId="33" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="33" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="35" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1424,812 +1393,819 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.375" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.375" style="14" customWidth="1"/>
-    <col min="6" max="6" width="79.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.75" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.75" style="2"/>
+    <col min="1" max="1" width="5.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="29.5" style="7" customWidth="1"/>
+    <col min="5" max="5" width="24" style="7" customWidth="1"/>
+    <col min="6" max="6" width="102.25" style="7" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="7" customWidth="1"/>
+    <col min="8" max="8" width="30.375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="36.625" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="8.75" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="35.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="21" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24" t="s">
+      <c r="I18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4">
+        <v>3</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>17</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>18</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>19</v>
+      </c>
+      <c r="B23" s="4">
+        <v>8</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>20</v>
+      </c>
+      <c r="B24" s="4">
+        <v>2</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="E24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="26" t="s">
+      <c r="J24" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>21</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>22</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="E26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="6">
+        <f>SUM(B5:B26)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="6">
+        <f>SUM(B29:B30)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
+        <v>1</v>
+      </c>
+      <c r="B34" s="9">
         <v>4</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
-        <v>1</v>
-      </c>
-      <c r="B7" s="15">
-        <v>1</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
-        <v>2</v>
-      </c>
-      <c r="B8" s="15">
-        <v>2</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="15">
-        <v>3</v>
-      </c>
-      <c r="B9" s="15">
-        <v>2</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
-        <v>4</v>
-      </c>
-      <c r="B10" s="15">
-        <v>3</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
-        <v>5</v>
-      </c>
-      <c r="B11" s="15">
-        <v>1</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="15">
-        <v>6</v>
-      </c>
-      <c r="B12" s="15">
-        <v>3</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="15">
+      <c r="C34" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="15">
-        <v>2</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="15">
-        <v>8</v>
-      </c>
-      <c r="B14" s="15">
-        <v>1</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="15">
-        <v>9</v>
-      </c>
-      <c r="B15" s="15">
-        <v>1</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="15">
-        <v>10</v>
-      </c>
-      <c r="B16" s="15">
-        <v>1</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="15">
-        <v>11</v>
-      </c>
-      <c r="B17" s="15">
-        <v>1</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="15">
-        <v>12</v>
-      </c>
-      <c r="B18" s="15">
-        <v>1</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="15">
-        <v>13</v>
-      </c>
-      <c r="B19" s="15">
-        <v>1</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="16" t="s">
+      <c r="J34" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="15">
-        <v>14</v>
-      </c>
-      <c r="B20" s="15">
-        <v>1</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="15">
-        <v>15</v>
-      </c>
-      <c r="B21" s="15">
-        <v>1</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="15">
-        <v>16</v>
-      </c>
-      <c r="B22" s="15">
-        <v>3</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="15">
-        <v>17</v>
-      </c>
-      <c r="B23" s="15">
-        <v>1</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="15">
-        <v>18</v>
-      </c>
-      <c r="B24" s="15">
-        <v>1</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="15">
-        <v>19</v>
-      </c>
-      <c r="B25" s="15">
-        <v>8</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="15">
-        <v>20</v>
-      </c>
-      <c r="B26" s="15">
-        <v>2</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="15">
-        <v>21</v>
-      </c>
-      <c r="B27" s="15">
-        <v>1</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="15">
-        <v>22</v>
-      </c>
-      <c r="B28" s="15">
-        <v>1</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="13">
-        <f>SUM(B7:B28)</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="15">
-        <v>1</v>
-      </c>
-      <c r="B33" s="15">
-        <v>1</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="I33" s="16"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="13">
-        <f>SUM(B32:B33)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="18">
-        <v>1</v>
-      </c>
-      <c r="B38" s="18">
-        <v>4</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" s="19" t="s">
-        <v>100</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="E1:F4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-  </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="34" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="52" orientation="landscape" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E14 E18" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2417,18 +2393,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EA33969-3005-4488-8196-B05EF3FE290A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2016FC8E-5ED9-4635-978E-8EE879A95503}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2016FC8E-5ED9-4635-978E-8EE879A95503}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EA33969-3005-4488-8196-B05EF3FE290A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
